--- a/election_votar_data/LOHAGARA/CHARAMBA/152610/152610_com_1283_male_without_photo_73_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHARAMBA/152610/152610_com_1283_male_without_photo_73_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="38" customWidth="1" min="4" max="4"/>
     <col width="35.5" customWidth="1" min="5" max="5"/>
-    <col width="47" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="F114" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ: ০১/০৮/২০০৮</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G114" s="3" t="inlineStr">
@@ -9975,7 +9975,7 @@
       </c>
       <c r="F227" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ: ১৭/০৬/১৯৬৯</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G227" s="3" t="inlineStr">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="F254" s="3" t="inlineStr">
         <is>
-          <t>দক্ষিণ জন্ম তারিখ:০৫/০৩/১৯৯৪</t>
+          <t>দক্ষিণ</t>
         </is>
       </c>
       <c r="G254" s="3" t="inlineStr">
@@ -42987,7 +42987,7 @@
       </c>
       <c r="F1013" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ: ২৭/০৬/২০০২</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G1013" s="3" t="inlineStr">

--- a/election_votar_data/LOHAGARA/CHARAMBA/152610/152610_com_1283_male_without_photo_73_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHARAMBA/152610/152610_com_1283_male_without_photo_73_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="38" customWidth="1" min="4" max="4"/>
     <col width="35.5" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="47" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="F114" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ: ০১/০৮/২০০৮</t>
         </is>
       </c>
       <c r="G114" s="3" t="inlineStr">
@@ -9975,7 +9975,7 @@
       </c>
       <c r="F227" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ: ১৭/০৬/১৯৬৯</t>
         </is>
       </c>
       <c r="G227" s="3" t="inlineStr">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="F254" s="3" t="inlineStr">
         <is>
-          <t>দক্ষিণ</t>
+          <t>দক্ষিণ জন্ম তারিখ:০৫/০৩/১৯৯৪</t>
         </is>
       </c>
       <c r="G254" s="3" t="inlineStr">
@@ -42987,7 +42987,7 @@
       </c>
       <c r="F1013" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ: ২৭/০৬/২০০২</t>
         </is>
       </c>
       <c r="G1013" s="3" t="inlineStr">
